--- a/Darbuotojai.xlsx
+++ b/Darbuotojai.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mindaugas\Desktop\BaigiamasisDarbas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mindaugas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="465" windowWidth="38400" windowHeight="21135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11205" windowHeight="5505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,41 +29,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>1909014091</t>
   </si>
   <si>
-    <t>TR</t>
-  </si>
-  <si>
     <t>1912268191</t>
   </si>
   <si>
-    <t>BR</t>
-  </si>
-  <si>
     <t>193G371591</t>
   </si>
   <si>
-    <t>US</t>
-  </si>
-  <si>
     <t>195G161291</t>
   </si>
   <si>
     <t>1999121291</t>
   </si>
   <si>
-    <t>IN</t>
-  </si>
-  <si>
     <t>19O9866791</t>
   </si>
   <si>
-    <t>RO</t>
-  </si>
-  <si>
     <t>2805294982</t>
   </si>
   <si>
@@ -73,15 +58,9 @@
     <t>2810379382</t>
   </si>
   <si>
-    <t>FR</t>
-  </si>
-  <si>
     <t>2811535082</t>
   </si>
   <si>
-    <t>LT</t>
-  </si>
-  <si>
     <t>2812268182</t>
   </si>
   <si>
@@ -121,9 +100,6 @@
     <t>4611958564</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
     <t>4642347564</t>
   </si>
   <si>
@@ -133,9 +109,6 @@
     <t>46ZZ017U64</t>
   </si>
   <si>
-    <t>SK</t>
-  </si>
-  <si>
     <t>5501820Z55</t>
   </si>
   <si>
@@ -163,9 +136,6 @@
     <t>6409906746</t>
   </si>
   <si>
-    <t>CN</t>
-  </si>
-  <si>
     <t>640D101546</t>
   </si>
   <si>
@@ -241,10 +211,10 @@
     <t>91A6037A19</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>Employee</t>
+  </si>
+  <si>
+    <t>Hours/Week</t>
   </si>
 </sst>
 </file>
@@ -306,10 +276,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,576 +594,569 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F66" sqref="A62:F66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="3">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="3">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="3">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="3">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B7" s="3">
+        <v>40</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B8" s="3">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B9" s="3">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B10" s="3">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B11" s="3">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B12" s="3">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B13" s="3">
+        <v>40</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B14" s="3">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B15" s="3">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B16" s="3">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B17" s="3">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B18" s="3">
+        <v>40</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B19" s="3">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B20" s="3">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B21" s="3">
+        <v>42</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B22" s="3">
+        <v>42</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B23" s="3">
+        <v>42</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B24" s="3">
+        <v>40</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B25" s="3">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B26" s="3">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B27" s="3">
+        <v>40</v>
+      </c>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B28" s="3">
+        <v>42</v>
+      </c>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B29" s="3">
+        <v>42</v>
+      </c>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B30" s="3">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B31" s="3">
+        <v>40</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B32" s="3">
+        <v>40</v>
+      </c>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B33" s="3">
+        <v>40</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B34" s="3">
+        <v>42</v>
+      </c>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B35" s="3">
+        <v>42</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B36" s="3">
+        <v>40</v>
+      </c>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B37" s="3">
+        <v>40</v>
+      </c>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B38" s="3">
+        <v>40</v>
+      </c>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B39" s="3">
+        <v>40</v>
+      </c>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B40" s="3">
+        <v>42</v>
+      </c>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="B41" s="3">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>42</v>
+      </c>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="B43" s="3">
+        <v>40</v>
+      </c>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B45" s="3">
+        <v>40</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="B46" s="3">
+        <v>40</v>
+      </c>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B47" s="3">
+        <v>40</v>
+      </c>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B48" s="3">
+        <v>42</v>
+      </c>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="B49" s="3">
+        <v>40</v>
+      </c>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="B50" s="3">
+        <v>40</v>
+      </c>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="B51" s="3">
+        <v>40</v>
+      </c>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="B52" s="3">
+        <v>40</v>
+      </c>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="B53" s="3">
+        <v>42</v>
+      </c>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="B54" s="3">
+        <v>40</v>
+      </c>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="B55" s="3">
+        <v>42</v>
+      </c>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="B56" s="3">
+        <v>42</v>
+      </c>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="B57" s="3">
+        <v>42</v>
+      </c>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="B58" s="3">
+        <v>42</v>
+      </c>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="B59" s="3">
+        <v>40</v>
+      </c>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="B60" s="3">
+        <v>40</v>
+      </c>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>34</v>
+      <c r="B61" s="3">
+        <v>40</v>
       </c>
       <c r="C61" s="4"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="4"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>